--- a/data/trans_bre/P2A_ner_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 2,62</t>
+          <t>-0,77; 2,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,84</t>
+          <t>-1,06; 1,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,32</t>
+          <t>-0,86; 4,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 7,22</t>
+          <t>-3,74; 7,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,68; 415,63</t>
+          <t>-39,02; 400,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-64,34; 332,45</t>
+          <t>-59,57; 332,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 278,18</t>
+          <t>-33,05; 260,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-49,74; 342,88</t>
+          <t>-53,78; 261,03</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,8</t>
+          <t>-1,49; 1,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,61</t>
+          <t>0,14; 3,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,31</t>
+          <t>-0,83; 3,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 4,27</t>
+          <t>-2,28; 4,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,41; 122,28</t>
+          <t>-57,5; 102,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,22; 465,87</t>
+          <t>1,43; 397,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,78; 231,42</t>
+          <t>-28,31; 228,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,6; 186,67</t>
+          <t>-42,82; 168,79</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,73</t>
+          <t>-0,98; 3,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,33</t>
+          <t>-2,44; 2,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,91</t>
+          <t>1,89; 6,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 1,58</t>
+          <t>-3,8; 1,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,89; 172,29</t>
+          <t>-25,85; 163,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,94; 73,18</t>
+          <t>-41,25; 65,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,87; 253,46</t>
+          <t>37,61; 249,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-48,25; 35,15</t>
+          <t>-48,35; 40,57</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 6,06</t>
+          <t>1,0; 5,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 4,85</t>
+          <t>-0,09; 4,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 10,17</t>
+          <t>3,8; 10,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 2,49</t>
+          <t>-2,87; 2,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,34; 500,4</t>
+          <t>24,94; 412,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 237,73</t>
+          <t>-6,45; 232,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,99; 251,51</t>
+          <t>52,32; 241,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,27; 44,04</t>
+          <t>-31,43; 45,2</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 4,53</t>
+          <t>-1,77; 4,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 5,07</t>
+          <t>-0,24; 5,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,06; 15,97</t>
+          <t>7,41; 16,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,95</t>
+          <t>-0,59; 4,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 164,48</t>
+          <t>-30,94; 176,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 244,61</t>
+          <t>-8,34; 246,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>74,59; 293,32</t>
+          <t>77,92; 304,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 103,8</t>
+          <t>-8,06; 91,44</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,85</t>
+          <t>0,58; 5,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 5,67</t>
+          <t>0,43; 5,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,1; 14,08</t>
+          <t>7,11; 13,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 37,06</t>
+          <t>1,17; 33,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,36; 208,35</t>
+          <t>6,92; 203,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,02; 171,76</t>
+          <t>5,89; 174,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>92,09; 286,53</t>
+          <t>90,97; 282,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,02; 652,22</t>
+          <t>15,46; 603,89</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,73</t>
+          <t>0,94; 2,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,8</t>
+          <t>0,95; 2,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,15; 7,76</t>
+          <t>5,11; 7,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 13,02</t>
+          <t>0,67; 13,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,98; 117,4</t>
+          <t>29,92; 119,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,95; 104,27</t>
+          <t>26,41; 108,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>100,32; 190,45</t>
+          <t>101,07; 195,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,85; 225,91</t>
+          <t>9,67; 224,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_ner_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>61,72%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 7,3</t>
+          <t>-2,18; 4,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-53,78; 261,03</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>20,57%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 4,34</t>
+          <t>-2,25; 2,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,82; 168,79</t>
+          <t>-60,04; 238,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -835,12 +835,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>41,13%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-15,2%</t>
+          <t>-22,01%</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 3,65</t>
+          <t>-1,0; 3,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,71</t>
+          <t>-3,02; 1,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 163,48</t>
+          <t>-26,13; 157,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-48,35; 40,57</t>
+          <t>-62,48; 64,54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,27%</t>
+          <t>47,71%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,43</t>
+          <t>-0,77; 4,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 45,2</t>
+          <t>-15,33; 234,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>34,67%</t>
+          <t>61,34%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 4,48</t>
+          <t>0,19; 4,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 91,44</t>
+          <t>1,89; 158,76</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,69</t>
+          <t>12,33</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,82</t>
+          <t>34,55</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>79,83%</t>
+          <t>67,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>68,38%</t>
+          <t>111,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>177,7%</t>
+          <t>300,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>173,56%</t>
+          <t>1029,42%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,57</t>
+          <t>-0,63; 6,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 5,9</t>
+          <t>1,0; 8,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,11; 13,98</t>
+          <t>7,96; 17,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 33,24</t>
+          <t>2,24; 73,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 203,19</t>
+          <t>-12,17; 231,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,89; 174,64</t>
+          <t>12,66; 305,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>90,97; 282,33</t>
+          <t>132,15; 680,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,46; 603,89</t>
+          <t>61,26; 4055,93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>66,06%</t>
+          <t>100,74%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>60,69%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>144,32%</t>
+          <t>99,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>60,02%</t>
+          <t>15,01%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,82</t>
+          <t>-0,5; 7,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>-2,49; 5,19</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3,38; 13,94</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 3,27</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-14,46; 383,8</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-38,56; 186,17</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>31,07; 227,07</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-32,42; 102,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6,53</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>65,25%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>60,69%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>144,32%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>199,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 2,79</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>0,95; 2,86</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>5,11; 7,78</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 13,16</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>29,92; 119,21</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 22,73</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>28,71; 116,58</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>26,41; 108,82</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>101,07; 195,68</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>9,67; 224,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>27,07; 857,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P2A_ner_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Edad-trans_bre.xlsx
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,6</t>
+          <t>-0,7; 2,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,89</t>
+          <t>-1,15; 2,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,05</t>
+          <t>-0,78; 4,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,11</t>
+          <t>-2,19; 4,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 400,85</t>
+          <t>-44,65; 348,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-59,57; 332,54</t>
+          <t>-66,25; 340,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 260,31</t>
+          <t>-26,78; 302,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,52</t>
+          <t>-1,43; 1,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 3,41</t>
+          <t>0,15; 3,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 3,36</t>
+          <t>-0,76; 3,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,88</t>
+          <t>-2,35; 2,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,5; 102,73</t>
+          <t>-54,62; 111,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 397,93</t>
+          <t>0,29; 413,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 228,38</t>
+          <t>-26,3; 200,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,04; 238,89</t>
+          <t>-65,03; 253,72</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,61</t>
+          <t>-1,2; 3,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 2,34</t>
+          <t>-2,11; 2,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,52</t>
+          <t>1,49; 6,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,27</t>
+          <t>-3,04; 0,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 157,2</t>
+          <t>-26,43; 150,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,25; 65,16</t>
+          <t>-38,17; 74,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,61; 249,18</t>
+          <t>26,74; 240,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,48; 64,54</t>
+          <t>-60,35; 44,87</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,82</t>
+          <t>0,82; 5,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 4,65</t>
+          <t>-0,08; 4,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 10,09</t>
+          <t>3,63; 10,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,26</t>
+          <t>-0,48; 4,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,94; 412,89</t>
+          <t>17,85; 404,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 232,55</t>
+          <t>-4,51; 255,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,32; 241,25</t>
+          <t>55,36; 249,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 234,58</t>
+          <t>-9,62; 277,55</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 4,42</t>
+          <t>-1,45; 4,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,4</t>
+          <t>-0,36; 5,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,41; 16,01</t>
+          <t>6,52; 16,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,46</t>
+          <t>0,15; 4,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 176,96</t>
+          <t>-30,8; 158,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 246,86</t>
+          <t>-10,71; 235,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>77,92; 304,71</t>
+          <t>68,37; 308,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 158,76</t>
+          <t>-0,54; 156,86</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 6,32</t>
+          <t>-0,66; 6,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 8,68</t>
+          <t>1,52; 8,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,96; 17,14</t>
+          <t>8,12; 17,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,24; 73,51</t>
+          <t>2,29; 70,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 231,29</t>
+          <t>-13,04; 218,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,66; 305,88</t>
+          <t>18,25; 300,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>132,15; 680,52</t>
+          <t>143,42; 692,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>61,26; 4055,93</t>
+          <t>60,77; 3108,65</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,08</t>
+          <t>0,01; 7,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 5,19</t>
+          <t>-2,66; 5,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,38; 13,94</t>
+          <t>3,36; 13,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 3,27</t>
+          <t>-2,0; 3,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 383,8</t>
+          <t>-10,14; 415,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-38,56; 186,17</t>
+          <t>-39,47; 181,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,07; 227,07</t>
+          <t>28,48; 231,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 102,16</t>
+          <t>-30,26; 107,28</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,79</t>
+          <t>0,8; 2,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,86</t>
+          <t>0,98; 2,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,78</t>
+          <t>5,18; 7,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,92; 22,73</t>
+          <t>0,88; 23,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,71; 116,58</t>
+          <t>24,12; 112,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,41; 108,82</t>
+          <t>26,38; 109,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>101,07; 195,68</t>
+          <t>102,14; 197,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,07; 857,9</t>
+          <t>24,67; 863,0</t>
         </is>
       </c>
     </row>
